--- a/TP1/tablas/15.xlsx
+++ b/TP1/tablas/15.xlsx
@@ -469,17 +469,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>101101011010011011111110011010</t>
+          <t>111011010011100111010101110010</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5035028872106262</v>
+        <v>0.8587056948055914</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001670791129378663</v>
+        <v>7.779581916200958e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1721437341839876</v>
+        <v>0.2977361743313028</v>
       </c>
     </row>
     <row r="3">
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>101101011010011011111110011111</t>
+          <t>111011010011100111100111101100</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5035028938190991</v>
+        <v>0.8587076728551368</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1797872479977504</v>
+        <v>0.01562082192970662</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3728396460955959</v>
+        <v>0.5982610274860772</v>
       </c>
     </row>
     <row r="4">
@@ -513,17 +513,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>101101011010011011111110011111</t>
+          <t>111011010101001011100111101010</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5035028938190991</v>
+        <v>0.8594148040659402</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1796892172993583</v>
+        <v>0.4650272860068329</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3729750095919255</v>
+        <v>0.8025423855049432</v>
       </c>
     </row>
     <row r="5">
@@ -535,17 +535,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010101001011100111101010</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8594148040659402</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1796892172993583</v>
+        <v>0.8024748812251115</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3812292536107603</v>
+        <v>0.8365063847132603</v>
       </c>
     </row>
     <row r="6">
@@ -557,17 +557,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010101001011100101110010</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8594145968549618</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2602828035074412</v>
+        <v>0.8024748845622623</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3874162675698072</v>
+        <v>0.8309587519584405</v>
       </c>
     </row>
     <row r="7">
@@ -579,17 +579,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010101001011100111100100</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8594147937053906</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2602828035074412</v>
+        <v>0.8024746943446718</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3817359828590862</v>
+        <v>0.8364796941987744</v>
       </c>
     </row>
     <row r="8">
@@ -601,17 +601,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>101101011010011011111100011011</t>
+          <t>111011010101001011100111101010</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5035027193554286</v>
+        <v>0.8594148040659402</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2602828035074412</v>
+        <v>0.8024746943446718</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4354421292498555</v>
+        <v>0.8419661355251072</v>
       </c>
     </row>
     <row r="9">
@@ -623,17 +623,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>101101011010101100011010011011</t>
+          <t>111011010101100111000111100010</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.5035918795168658</v>
+        <v>0.859609303305261</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2602186814241821</v>
+        <v>0.8024748812251115</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4791813508161938</v>
+        <v>0.8476060556579312</v>
       </c>
     </row>
     <row r="10">
@@ -645,17 +645,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>101101011010011011111110011011</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.5035028885323207</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E10" t="n">
-        <v>0.503493212452782</v>
+        <v>0.8024748812251115</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5034980236616755</v>
+        <v>0.830819616617536</v>
       </c>
     </row>
     <row r="11">
@@ -667,17 +667,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E11" t="n">
-        <v>0.503493212452782</v>
+        <v>0.8024748812251115</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5034979898263952</v>
+        <v>0.8419887712440488</v>
       </c>
     </row>
     <row r="12">
@@ -689,17 +689,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>101101011010011011111100011011</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5035027193554286</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E12" t="n">
-        <v>0.503493212452782</v>
+        <v>0.8024748812251115</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5034970391361921</v>
+        <v>0.8364425626536496</v>
       </c>
     </row>
     <row r="13">
@@ -711,17 +711,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>101101011010011011111100011011</t>
+          <t>111011010101001111000111100010</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.5035027193554286</v>
+        <v>0.8594395452363079</v>
       </c>
       <c r="E13" t="n">
-        <v>0.503493212452782</v>
+        <v>0.8017642655163755</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5034970424403969</v>
+        <v>0.8308988645288986</v>
       </c>
     </row>
     <row r="14">
@@ -733,17 +733,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010101001111000111100010</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8594395452363079</v>
       </c>
       <c r="E14" t="n">
-        <v>0.503493212452782</v>
+        <v>0.8017642655163755</v>
       </c>
       <c r="F14" t="n">
-        <v>0.503496105363457</v>
+        <v>0.841843805089362</v>
       </c>
     </row>
     <row r="15">
@@ -755,17 +755,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011111111000111101010</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.858873819888117</v>
       </c>
       <c r="E15" t="n">
-        <v>0.503493212452782</v>
+        <v>0.8017642655163755</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5034961053623657</v>
+        <v>0.847464809823159</v>
       </c>
     </row>
     <row r="16">
@@ -777,17 +777,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011111111000111101010</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.858873819888117</v>
       </c>
       <c r="E16" t="n">
-        <v>0.503493212452782</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F16" t="n">
-        <v>0.503497069665924</v>
+        <v>0.8587212590381392</v>
       </c>
     </row>
     <row r="17">
@@ -799,17 +799,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E17" t="n">
-        <v>0.503493381628077</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5034978986291667</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="18">
@@ -821,17 +821,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E18" t="n">
-        <v>0.503493381628077</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F18" t="n">
-        <v>0.503498693756259</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="19">
@@ -843,17 +843,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E19" t="n">
-        <v>0.503493381628077</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5034996242226665</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="20">
@@ -865,17 +865,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E20" t="n">
-        <v>0.503493381628077</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5035002670912772</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="21">
@@ -887,17 +887,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5035013328990007</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5035021449474424</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="22">
@@ -909,17 +909,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5035013328990007</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5035021449474424</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="23">
@@ -931,17 +931,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5035013328990007</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5035022802888494</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="24">
@@ -953,17 +953,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5035013328990007</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5035022802888494</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="25">
@@ -975,17 +975,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5035013328990007</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5035025509716633</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="26">
@@ -997,17 +997,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="27">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="28">
@@ -1041,17 +1041,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="29">
@@ -1063,17 +1063,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="30">
@@ -1085,17 +1085,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="31">
@@ -1107,17 +1107,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="32">
@@ -1129,17 +1129,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="33">
@@ -1151,17 +1151,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="34">
@@ -1173,17 +1173,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="35">
@@ -1195,17 +1195,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="36">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="37">
@@ -1239,17 +1239,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="38">
@@ -1261,17 +1261,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="39">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="40">
@@ -1305,17 +1305,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="41">
@@ -1327,17 +1327,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="42">
@@ -1349,17 +1349,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="43">
@@ -1371,17 +1371,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="44">
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="45">
@@ -1415,17 +1415,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="46">
@@ -1437,17 +1437,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="47">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="48">
@@ -1481,17 +1481,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="49">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="50">
@@ -1525,17 +1525,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="51">
@@ -1547,17 +1547,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="52">
@@ -1569,17 +1569,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="53">
@@ -1591,17 +1591,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="54">
@@ -1613,17 +1613,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="55">
@@ -1635,17 +1635,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="56">
@@ -1657,17 +1657,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="57">
@@ -1679,17 +1679,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="58">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="59">
@@ -1723,17 +1723,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="60">
@@ -1745,17 +1745,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="61">
@@ -1767,17 +1767,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="62">
@@ -1789,17 +1789,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="63">
@@ -1811,17 +1811,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="64">
@@ -1833,17 +1833,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="65">
@@ -1855,17 +1855,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="66">
@@ -1877,17 +1877,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="67">
@@ -1899,17 +1899,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="68">
@@ -1921,17 +1921,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="69">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="70">
@@ -1965,17 +1965,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="71">
@@ -1987,17 +1987,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="72">
@@ -2009,17 +2009,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="73">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="74">
@@ -2053,17 +2053,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="75">
@@ -2075,17 +2075,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="76">
@@ -2097,17 +2097,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="77">
@@ -2119,17 +2119,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="78">
@@ -2141,17 +2141,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="79">
@@ -2163,17 +2163,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="80">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="81">
@@ -2207,17 +2207,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="82">
@@ -2229,17 +2229,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="83">
@@ -2251,17 +2251,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="84">
@@ -2273,17 +2273,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="85">
@@ -2295,17 +2295,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="86">
@@ -2317,17 +2317,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="87">
@@ -2339,17 +2339,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="88">
@@ -2361,17 +2361,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="89">
@@ -2383,17 +2383,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="90">
@@ -2405,17 +2405,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="91">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="92">
@@ -2449,17 +2449,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="93">
@@ -2471,17 +2471,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="94">
@@ -2493,17 +2493,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F94" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="95">
@@ -2515,17 +2515,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="96">
@@ -2537,17 +2537,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="97">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="98">
@@ -2581,17 +2581,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E98" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="99">
@@ -2603,17 +2603,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="100">
@@ -2625,17 +2625,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="101">
@@ -2647,17 +2647,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="102">
@@ -2669,17 +2669,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="103">
@@ -2691,17 +2691,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="104">
@@ -2713,17 +2713,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F104" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="105">
@@ -2735,17 +2735,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="106">
@@ -2757,17 +2757,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F106" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="107">
@@ -2779,17 +2779,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="108">
@@ -2801,17 +2801,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="109">
@@ -2823,17 +2823,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F109" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="110">
@@ -2845,17 +2845,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="111">
@@ -2867,17 +2867,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="112">
@@ -2889,17 +2889,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="113">
@@ -2911,17 +2911,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="114">
@@ -2933,17 +2933,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="115">
@@ -2955,17 +2955,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="116">
@@ -2977,17 +2977,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="117">
@@ -2999,17 +2999,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="118">
@@ -3021,17 +3021,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="119">
@@ -3043,17 +3043,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="120">
@@ -3065,17 +3065,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="121">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="122">
@@ -3109,17 +3109,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E122" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="123">
@@ -3131,17 +3131,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E123" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F123" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="124">
@@ -3153,17 +3153,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="125">
@@ -3175,17 +3175,17 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E125" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="126">
@@ -3197,17 +3197,17 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="127">
@@ -3219,17 +3219,17 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E127" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F127" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="128">
@@ -3241,17 +3241,17 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E128" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F128" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="129">
@@ -3263,17 +3263,17 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="130">
@@ -3285,17 +3285,17 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E130" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="131">
@@ -3307,17 +3307,17 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="132">
@@ -3329,17 +3329,17 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="133">
@@ -3351,17 +3351,17 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F133" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="134">
@@ -3373,17 +3373,17 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F134" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="135">
@@ -3395,17 +3395,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E135" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F135" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="136">
@@ -3417,17 +3417,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E136" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F136" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="137">
@@ -3439,17 +3439,17 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E137" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="138">
@@ -3461,17 +3461,17 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E138" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="139">
@@ -3483,17 +3483,17 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E139" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F139" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="140">
@@ -3505,17 +3505,17 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E140" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="141">
@@ -3527,17 +3527,17 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E141" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F141" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="142">
@@ -3549,17 +3549,17 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E142" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F142" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="143">
@@ -3571,17 +3571,17 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E143" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F143" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="144">
@@ -3593,17 +3593,17 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E144" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F144" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="145">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E145" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F145" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="146">
@@ -3637,17 +3637,17 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E146" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F146" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="147">
@@ -3659,17 +3659,17 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E147" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F147" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="148">
@@ -3681,17 +3681,17 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E148" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F148" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="149">
@@ -3703,17 +3703,17 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F149" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="150">
@@ -3725,17 +3725,17 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E150" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F150" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="151">
@@ -3747,17 +3747,17 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E151" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F151" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="152">
@@ -3769,17 +3769,17 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E152" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F152" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="153">
@@ -3791,17 +3791,17 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E153" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F153" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="154">
@@ -3813,17 +3813,17 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E154" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F154" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="155">
@@ -3835,17 +3835,17 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E155" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F155" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="156">
@@ -3857,17 +3857,17 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E156" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F156" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="157">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E157" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F157" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="158">
@@ -3901,17 +3901,17 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E158" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F158" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="159">
@@ -3923,17 +3923,17 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E159" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F159" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="160">
@@ -3945,17 +3945,17 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E160" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F160" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="161">
@@ -3967,17 +3967,17 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E161" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F161" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="162">
@@ -3989,17 +3989,17 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E162" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F162" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="163">
@@ -4011,17 +4011,17 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E163" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F163" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="164">
@@ -4033,17 +4033,17 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E164" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F164" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="165">
@@ -4055,17 +4055,17 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E165" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F165" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="166">
@@ -4077,17 +4077,17 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E166" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F166" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="167">
@@ -4099,17 +4099,17 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E167" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F167" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="168">
@@ -4121,17 +4121,17 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E168" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F168" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="169">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E169" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F169" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="170">
@@ -4165,17 +4165,17 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E170" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F170" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="171">
@@ -4187,17 +4187,17 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E171" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F171" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="172">
@@ -4209,17 +4209,17 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E172" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F172" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="173">
@@ -4231,17 +4231,17 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E173" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F173" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="174">
@@ -4253,17 +4253,17 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E174" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F174" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="175">
@@ -4275,17 +4275,17 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="176">
@@ -4297,17 +4297,17 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E176" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F176" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="177">
@@ -4319,17 +4319,17 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E177" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F177" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="178">
@@ -4341,17 +4341,17 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E178" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F178" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="179">
@@ -4363,17 +4363,17 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E179" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F179" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="180">
@@ -4385,17 +4385,17 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E180" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F180" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="181">
@@ -4407,17 +4407,17 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E181" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F181" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="182">
@@ -4429,17 +4429,17 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E182" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F182" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="183">
@@ -4451,17 +4451,17 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E183" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F183" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="184">
@@ -4473,17 +4473,17 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E184" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F184" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="185">
@@ -4495,17 +4495,17 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E185" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F185" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="186">
@@ -4517,17 +4517,17 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E186" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F186" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="187">
@@ -4539,17 +4539,17 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E187" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F187" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="188">
@@ -4561,17 +4561,17 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E188" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F188" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="189">
@@ -4583,17 +4583,17 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E189" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F189" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="190">
@@ -4605,17 +4605,17 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E190" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F190" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="191">
@@ -4627,17 +4627,17 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E191" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F191" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="192">
@@ -4649,17 +4649,17 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E192" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F192" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="193">
@@ -4671,17 +4671,17 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E193" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F193" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="194">
@@ -4693,17 +4693,17 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E194" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F194" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="195">
@@ -4715,17 +4715,17 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E195" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F195" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="196">
@@ -4737,17 +4737,17 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E196" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F196" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="197">
@@ -4759,17 +4759,17 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E197" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F197" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="198">
@@ -4781,17 +4781,17 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E198" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F198" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="199">
@@ -4803,17 +4803,17 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E199" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F199" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="200">
@@ -4825,17 +4825,17 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E200" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F200" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
     <row r="201">
@@ -4847,17 +4847,17 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>101101011010011011111100000010</t>
+          <t>111011010011100111000111101010</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="E201" t="n">
-        <v>0.5035026863130702</v>
+        <v>0.8587041344609606</v>
       </c>
       <c r="F201" t="n">
-        <v>0.5035026863130703</v>
+        <v>0.8587041344609606</v>
       </c>
     </row>
   </sheetData>
